--- a/biology/Botanique/Elachista_(algue)/Elachista_(algue).xlsx
+++ b/biology/Botanique/Elachista_(algue)/Elachista_(algue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Elachista est un genre d'algues brunes de la famille des Chordariaceae. 
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (30 oct. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (30 oct. 2012) :
 Elachista antarctica Skottsberg
 Elachista australis J.Agardh
 Elachista chondrii Areschoug
@@ -539,7 +553,7 @@
 Elachista tenuis Yamada
 Elachista vellosa Takamatsu
 Elachista zosterae Noda
-Selon Catalogue of Life                                   (30 oct. 2012)[2] :
+Selon Catalogue of Life                                   (30 oct. 2012) :
 Elachista antarctica
 Elachista australis
 Elachista chondrii
@@ -571,14 +585,14 @@
 Elachista tenuis
 Elachista vellosa
 Elachista zosterae
-Selon ITIS      (30 oct. 2012)[3] :
+Selon ITIS      (30 oct. 2012) :
 Elachista flaccida
 Elachista fucicola
 Elachista grevillei
 Elachista lubrica
 Elachista scutulata
 Elachista stellulata
-Selon World Register of Marine Species                               (30 oct. 2012)[4] :
+Selon World Register of Marine Species                               (30 oct. 2012) :
 Elachista antarctica Skottsberg, 1953
 Elachista australis J.Agardh, 1882
 Elachista chondrii Areschoug, 1875
